--- a/A-开发相关文档素材/6.二期文档/前端设计.xlsx
+++ b/A-开发相关文档素材/6.二期文档/前端设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,462 +16,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="338">
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>处理模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面JS名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日历控件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>语音控件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日程列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>组件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日程详情新建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日程详情（受邀）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参与人选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参与人详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计划展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>群组列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>群组编辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计划新建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登陆（密码）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登陆（短信）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>条款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>帮助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>消息提醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欢迎页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>进入页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备份恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>h.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>h.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>h.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdls.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdc.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日程详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddi.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddj.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fs.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fd.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>m.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>黑名单列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bl.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ps.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pl.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdl.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pc.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pd.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gl.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gc.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ss.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>br.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ls.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lp.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>r.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>p.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mr.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ip.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdl.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdc.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddi.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddj.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fs.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fd.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bl.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ps.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pl.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pc.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pd.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gl.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gc.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ss.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>br.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lp.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ls.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ip.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mr.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tdc.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddi.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tddj.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fs.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fd.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>m.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bl.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ps.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pl.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pc.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pd.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gl.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gc.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ss.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>br.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lp.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ls.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>r.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>p.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ip.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mr.scss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>模块或子页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>calendar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>邀请朋友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>辅助功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登陆注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>assistant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>m.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>r.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>p.module.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分享日程（H5页面）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>├─node_modules</t>
@@ -607,127 +607,127 @@
   </si>
   <si>
     <t>├─plugins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>nodeJs依赖包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打包工作目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>原生插件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打包需要的资源文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开发目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>APP进入主目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开发资源文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>声音文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面互动声音文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>字体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图标文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图片文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>组件目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日历组件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>菜单组件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sqlite对应实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面对应实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后台服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前台数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>页面调试工作目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>todolist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>todocreate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tododetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
@@ -1016,183 +1016,227 @@
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/gtd/sync/initial_sync</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>smssev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>person.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/gtd/auth/login_authcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>authsev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/agd/agenda/save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>personsev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bacsev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>agdsev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/bla/target/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>blasev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/gtd/aibutler/audio_base64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>aibutlersev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>syncsev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>入参</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>出参</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求头部共通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>signup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>getcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loginbycode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loginbypass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>updateself</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>getavatar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>updatepass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>backup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>recover</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>getlastest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contactssave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>remove</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>postaudio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>posttext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>shaesev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>shasev.ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>downsysname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录码</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>Authorization（auth）</t>
+  </si>
+  <si>
+    <t>ProductId（pId）</t>
+  </si>
+  <si>
+    <t>ProductVersion（Pv）</t>
+  </si>
+  <si>
+    <t>DeviceId（dId）</t>
+  </si>
+  <si>
+    <t>AccountId（aId）</t>
+  </si>
+  <si>
+    <t>DeviceType（Dtp）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,8 +1269,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,6 +1324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,13 +1577,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1539,67 +1600,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1618,11 +1679,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,22 +1697,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1949,21 +2014,21 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="30" t="s">
@@ -2708,7 +2773,7 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2757,7 +2822,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.5">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2780,7 +2845,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5">
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +2859,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2808,7 +2873,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2831,7 +2896,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="16.5">
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +2917,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="16.5">
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2938,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
@@ -2894,7 +2959,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="16.5">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2914,7 +2979,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B11" s="52"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
@@ -2932,7 +2997,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="16.5">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2952,7 +3017,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="16.5">
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2970,7 +3035,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="16.5">
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +3053,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5">
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3071,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="16.5">
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
@@ -3024,7 +3089,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="16.5">
-      <c r="B17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
@@ -3042,7 +3107,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="16.5">
-      <c r="B18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3125,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="16.5">
-      <c r="B19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
@@ -3078,7 +3143,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5">
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3161,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="19" t="s">
         <v>30</v>
       </c>
@@ -3114,7 +3179,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="16.5">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3134,7 +3199,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="16.5">
-      <c r="B23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3217,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5">
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="17" t="s">
         <v>24</v>
       </c>
@@ -3170,7 +3235,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5">
-      <c r="B25" s="51"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
@@ -3188,7 +3253,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="16.5">
-      <c r="B26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="17" t="s">
         <v>26</v>
       </c>
@@ -3224,7 +3289,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="16.5">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -3244,7 +3309,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="16.5">
-      <c r="B29" s="51"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
@@ -3254,7 +3319,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B30" s="52"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="23" t="s">
         <v>28</v>
       </c>
@@ -3272,7 +3337,7 @@
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="B22:B26"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3280,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q31"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3295,7 +3360,7 @@
     <col min="17" max="17" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:22">
       <c r="J1" t="s">
         <v>284</v>
       </c>
@@ -3309,17 +3374,17 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:22">
+      <c r="B2" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="48" t="s">
         <v>285</v>
       </c>
       <c r="J2" t="s">
@@ -3332,17 +3397,17 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:22">
+      <c r="B3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="48" t="s">
         <v>195</v>
       </c>
       <c r="J3" t="s">
@@ -3351,18 +3416,36 @@
       <c r="L3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="54" t="s">
+      <c r="Q3" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="48" t="s">
         <v>199</v>
       </c>
       <c r="J4" t="s">
@@ -3371,16 +3454,34 @@
       <c r="L4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54" t="s">
+      <c r="Q4" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="48" t="s">
         <v>288</v>
       </c>
       <c r="J5" t="s">
@@ -3390,15 +3491,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
+    <row r="6" spans="2:22">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="48" t="s">
         <v>204</v>
       </c>
       <c r="J6" t="s">
@@ -3408,17 +3509,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="54" t="s">
+    <row r="7" spans="2:22">
+      <c r="B7" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="48" t="s">
         <v>208</v>
       </c>
       <c r="J7" t="s">
@@ -3428,15 +3529,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54" t="s">
+    <row r="8" spans="2:22">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="48" t="s">
         <v>211</v>
       </c>
       <c r="J8" t="s">
@@ -3446,15 +3547,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
+    <row r="9" spans="2:22">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="48" t="s">
         <v>214</v>
       </c>
       <c r="J9" t="s">
@@ -3464,15 +3565,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
+    <row r="10" spans="2:22">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="48" t="s">
         <v>217</v>
       </c>
       <c r="J10" t="s">
@@ -3482,17 +3583,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="2:22">
+      <c r="B11" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="48" t="s">
         <v>220</v>
       </c>
       <c r="J11" t="s">
@@ -3502,15 +3603,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
+    <row r="12" spans="2:22">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="48" t="s">
         <v>223</v>
       </c>
       <c r="J12" t="s">
@@ -3520,15 +3621,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54" t="s">
+    <row r="13" spans="2:22">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="48" t="s">
         <v>226</v>
       </c>
       <c r="J13" t="s">
@@ -3538,17 +3639,17 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="54" t="s">
+    <row r="14" spans="2:22">
+      <c r="B14" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="48" t="s">
         <v>290</v>
       </c>
       <c r="J14" t="s">
@@ -3558,15 +3659,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54" t="s">
+    <row r="15" spans="2:22">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="48" t="s">
         <v>232</v>
       </c>
       <c r="J15" t="s">
@@ -3576,15 +3677,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54" t="s">
+    <row r="16" spans="2:22">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="48" t="s">
         <v>235</v>
       </c>
       <c r="J16" t="s">
@@ -3595,14 +3696,14 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="48" t="s">
         <v>238</v>
       </c>
       <c r="J17" t="s">
@@ -3613,14 +3714,14 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="48" t="s">
         <v>241</v>
       </c>
       <c r="J18" t="s">
@@ -3631,28 +3732,28 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="54"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="48" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="48" t="s">
         <v>294</v>
       </c>
       <c r="J20" t="s">
@@ -3663,14 +3764,14 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="48" t="s">
         <v>250</v>
       </c>
       <c r="J21" t="s">
@@ -3681,14 +3782,14 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="54"/>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="48" t="s">
         <v>253</v>
       </c>
       <c r="J22" t="s">
@@ -3699,16 +3800,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="48" t="s">
         <v>296</v>
       </c>
       <c r="J23" t="s">
@@ -3719,14 +3820,14 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="54"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="48" t="s">
         <v>259</v>
       </c>
       <c r="J24" t="s">
@@ -3737,16 +3838,16 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="48" t="s">
         <v>263</v>
       </c>
       <c r="J25" t="s">
@@ -3757,26 +3858,26 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="54"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="48" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="48" t="s">
         <v>269</v>
       </c>
       <c r="J27" t="s">
@@ -3787,59 +3888,59 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="48" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="48" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="54"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="48" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="48" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>